--- a/Excel Filter Data/developers.xlsx
+++ b/Excel Filter Data/developers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.cruzm\Documents\UiPath\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.cruzm\Documents\UiPath\Excel Filter Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t>username</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>heryxpc@email.com</t>
+  </si>
+  <si>
+    <t>nickname</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,21 +418,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -440,10 +440,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C3">
         <v>9</v>
@@ -451,21 +451,21 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C4">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -473,10 +473,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C6">
         <v>9</v>
@@ -484,10 +484,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -495,10 +495,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C8">
         <v>8</v>
